--- a/data/financial_statements/soci/HIG.xlsx
+++ b/data/financial_statements/soci/HIG.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -128,9 +245,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -183,12 +297,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -493,129 +604,129 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
         <v>5580000000</v>
@@ -736,8 +847,8 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
         <v>-0.0186</v>
@@ -858,8 +969,8 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
         <v>3408000000</v>
@@ -980,8 +1091,8 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
         <v>2172000000</v>
@@ -1102,8 +1213,8 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
         <v>467000000</v>
@@ -1224,8 +1335,8 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
         <v>484000000</v>
@@ -1346,8 +1457,8 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
         <v>50000000</v>
@@ -1468,23 +1579,23 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
-        <v>3000000</v>
+        <v>-53000000</v>
       </c>
       <c r="C9">
-        <v>2000000</v>
+        <v>-53000000</v>
       </c>
       <c r="D9">
-        <v>5000000</v>
+        <v>-67000000</v>
       </c>
       <c r="E9">
-        <v>2000000</v>
+        <v>-64000000</v>
       </c>
       <c r="F9">
-        <v>-12000000</v>
+        <v>-46000000</v>
       </c>
       <c r="G9">
         <v>-57000000</v>
@@ -1590,8 +1701,8 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
         <v>431000000</v>
@@ -1712,8 +1823,8 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
         <v>92000000</v>
@@ -1834,8 +1945,8 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
         <v>339000000</v>
@@ -1956,8 +2067,8 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
         <v>6000000</v>
@@ -2006,8 +2117,8 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
         <v>333000000</v>
@@ -2128,11 +2239,11 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="C15">
         <v>1.32</v>
@@ -2141,10 +2252,10 @@
         <v>1.3</v>
       </c>
       <c r="E15">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="F15">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="G15">
         <v>2.54</v>
@@ -2250,8 +2361,8 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
         <v>1.02</v>
@@ -2372,23 +2483,23 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
-        <v>322000000</v>
+        <v>322100000</v>
       </c>
       <c r="C17">
-        <v>327000000</v>
+        <v>327400000</v>
       </c>
       <c r="D17">
-        <v>332000000</v>
+        <v>332300000</v>
       </c>
       <c r="E17">
-        <v>339000000</v>
+        <v>349100000</v>
       </c>
       <c r="F17">
-        <v>346000000</v>
+        <v>345600000</v>
       </c>
       <c r="G17">
         <v>353700000</v>
@@ -2494,23 +2605,23 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
-        <v>326000000</v>
+        <v>326300000</v>
       </c>
       <c r="C18">
-        <v>332000000</v>
+        <v>331800000</v>
       </c>
       <c r="D18">
-        <v>337000000</v>
+        <v>337300000</v>
       </c>
       <c r="E18">
-        <v>345000000</v>
+        <v>354100000</v>
       </c>
       <c r="F18">
-        <v>351000000</v>
+        <v>350700000</v>
       </c>
       <c r="G18">
         <v>358500000</v>
@@ -2616,8 +2727,8 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
         <v>0.3892</v>
@@ -2738,8 +2849,8 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
         <v>0.0867</v>
@@ -2860,8 +2971,8 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
         <v>0.0772</v>
@@ -2982,8 +3093,8 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
         <v>0.0597</v>
@@ -3104,8 +3215,8 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
         <v>605000000</v>
@@ -3226,8 +3337,8 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
         <v>484000000</v>
@@ -3348,8 +3459,8 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
         <v>339000000</v>
@@ -3470,8 +3581,8 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -3526,8 +3637,8 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
         <v>339000000</v>
@@ -3648,8 +3759,8 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
         <v>1.0525</v>
@@ -3770,8 +3881,8 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
         <v>1.0389</v>
@@ -3892,8 +4003,8 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="Q30">
         <v>0.0019</v>
@@ -3948,8 +4059,8 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="Q31">
         <v>0.0033</v>
@@ -4004,8 +4115,8 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
         <v>1.0525</v>
@@ -4126,8 +4237,8 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B33">
         <v>1.0389</v>
@@ -4248,8 +4359,8 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B34">
         <v>326300000</v>
@@ -4370,8 +4481,8 @@
       </c>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B35">
         <v>0.1084</v>
@@ -4492,8 +4603,8 @@
       </c>
     </row>
     <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
+      <c r="A36" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B36">
         <v>0.2726</v>
